--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\490\Desktop\Workspace\Projects\Personal\Systems\llc-evaluator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F149EF4-5FC5-46D8-ADAD-04C8EBE5E020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B32731-5DA8-4218-9624-49E2BAEAF931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15390" xr2:uid="{668E57E1-E094-4BEA-BEBA-EFF8DB984622}"/>
   </bookViews>
@@ -43,72 +43,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
-    <t>Column3</t>
+    <t>Array Size (B)</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>Access Time (ns)</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>1kB</t>
   </si>
   <si>
-    <t>Running Total</t>
+    <t>4kB</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>8kB</t>
   </si>
   <si>
-    <t>Time (ns)</t>
+    <t>16kB</t>
   </si>
   <si>
-    <t>Size (B)</t>
+    <t>32kB</t>
   </si>
   <si>
-    <t>I kb</t>
+    <t>64kB</t>
   </si>
   <si>
-    <t>16 kb</t>
+    <t>128kB</t>
   </si>
   <si>
-    <t>4 kb</t>
+    <t>256kB</t>
   </si>
   <si>
-    <t>8 kb</t>
+    <t>512kB</t>
   </si>
   <si>
-    <t>32 kb</t>
+    <t>1MB</t>
   </si>
   <si>
-    <t>64 kb</t>
+    <t>2MB</t>
   </si>
   <si>
-    <t>128 kb</t>
+    <t>4MB</t>
   </si>
   <si>
-    <t>256 kb</t>
+    <t>8MB</t>
   </si>
   <si>
-    <t>512 kb</t>
+    <t>16MB</t>
   </si>
   <si>
-    <t>1 mb</t>
+    <t>32MB</t>
   </si>
   <si>
-    <t>4 mb</t>
+    <t>64MB</t>
   </si>
   <si>
-    <t>5 mb</t>
+    <t>128MB</t>
   </si>
   <si>
-    <t>6 mb</t>
-  </si>
-  <si>
-    <t>3 mb</t>
-  </si>
-  <si>
-    <t>2 mb</t>
+    <t>256MB</t>
   </si>
 </sst>
 </file>
@@ -198,7 +192,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LLC Inference</a:t>
+              <a:t>Cache Inference</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -247,7 +241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time (ns)</c:v>
+                  <c:v>Access Time (ns)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -267,12 +261,52 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6385-4C0A-ACB2-13F44211E673}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F160-4E85-AC94-8CC632DF9324}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
               <c:symbol val="circle"/>
               <c:size val="10"/>
               <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:ln w="9525">
                   <a:noFill/>
                 </a:ln>
@@ -282,157 +316,164 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6385-4C0A-ACB2-13F44211E673}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6385-4C0A-ACB2-13F44211E673}"/>
+                <c16:uniqueId val="{00000005-F160-4E85-AC94-8CC632DF9324}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
             <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
+              <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-6385-4C0A-ACB2-13F44211E673}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3EF9-4BEA-B14E-2C743279B151}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>results!$A$2:$A$16</c:f>
+              <c:f>results!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>I kb</c:v>
+                  <c:v>1kB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 kb</c:v>
+                  <c:v>4kB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 kb</c:v>
+                  <c:v>8kB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16 kb</c:v>
+                  <c:v>16kB</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32 kb</c:v>
+                  <c:v>32kB</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64 kb</c:v>
+                  <c:v>64kB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128 kb</c:v>
+                  <c:v>128kB</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256 kb</c:v>
+                  <c:v>256kB</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512 kb</c:v>
+                  <c:v>512kB</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1 mb</c:v>
+                  <c:v>1MB</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2 mb</c:v>
+                  <c:v>2MB</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3 mb</c:v>
+                  <c:v>4MB</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4 mb</c:v>
+                  <c:v>8MB</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5 mb</c:v>
+                  <c:v>16MB</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6 mb</c:v>
+                  <c:v>32MB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64MB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>256MB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$B$2:$B$16</c:f>
+              <c:f>results!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>109356400</c:v>
+                  <c:v>60931200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121772900</c:v>
+                  <c:v>96244400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123091500</c:v>
+                  <c:v>74230000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132693400</c:v>
+                  <c:v>74357700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132379700</c:v>
+                  <c:v>80855900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220408100</c:v>
+                  <c:v>164600400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>208590500</c:v>
+                  <c:v>174898900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218738000</c:v>
+                  <c:v>173827500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>264655000</c:v>
+                  <c:v>198966200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298554500</c:v>
+                  <c:v>205075900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>458506300</c:v>
+                  <c:v>300293200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>303627100</c:v>
+                  <c:v>594296500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>779173500</c:v>
+                  <c:v>893760100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>288418100</c:v>
+                  <c:v>907943100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>753716900</c:v>
+                  <c:v>933804700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>908283100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>897314500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>971215400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,6 +504,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -528,6 +628,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Access Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> (ns)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-NZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -560,6 +725,374 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="540191472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$A$26:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1kB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4kB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8kB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16kB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32kB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64kB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128kB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256kB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512kB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4MB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8MB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16MB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32MB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64MB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>256MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$B$26:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.71482800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71508000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72006300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71451200000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73700600000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79595000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77999499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85051299999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.867398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93702300000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4928840000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3172699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6160019999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8893249999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9098709999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.877237</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0915499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0652-4C84-B4CC-CABD71F05B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="574466104"/>
+        <c:axId val="574464792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="574466104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574464792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574464792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574466104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -655,6 +1188,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1171,20 +1744,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1204,6 +2293,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4748E16-752F-485B-9844-47E23E62B473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1509,144 +2634,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B2A973-7963-40EA-853E-65DDAF259D1C}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>109356400</v>
+        <v>60931200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>121772900</v>
+        <v>96244400</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>123091500</v>
+        <v>74230000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>132693400</v>
+        <v>74357700</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>132379700</v>
+        <v>80855900</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>220408100</v>
+        <v>164600400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>208590500</v>
+        <v>174898900</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>218738000</v>
+        <v>173827500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>264655000</v>
+        <v>198966200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>298554500</v>
+        <v>205075900</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>458506300</v>
+        <v>300293200</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>303627100</v>
+        <v>594296500</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>779173500</v>
+        <v>893760100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>288418100</v>
+        <v>907943100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>933804700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>908283100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>897314500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>753716900</v>
+      <c r="B19">
+        <v>971215400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.71482800000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0.71508000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0.72006300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0.71451200000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0.73700600000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0.79595000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>0.77999499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0.74565999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0.85051299999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>0.867398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>0.93702300000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>1.4928840000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>1.3172699999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>3.6160019999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>3.8893249999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>3.9098709999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>3.877237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>4.0915499999999998</v>
       </c>
     </row>
   </sheetData>
